--- a/biology/Zoologie/Harle_(zoologie)/Harle_(zoologie).xlsx
+++ b/biology/Zoologie/Harle_(zoologie)/Harle_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de « harle » désigne plusieurs espèces d'oiseaux aquatiques de la famille des Anatidae et autrefois regroupées dans un seul genre, Mergus. Désormais, seules quatre espèces actuelles sont placées dans le genre Mergus, et deux autres sont traitées dans les genres monotypiques Lophodytes (le Harle couronné) et Mergellus (le Harle piette). Au Québec, le harle couronné est le grand harle sont aussi appelés des "becs-scies".
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mergellus albellus – Harle piette
 Lophodytes cucullatus – Harle couronné
